--- a/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Web_Performance_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Web_Performance_Validation_UR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <x:si>
     <x:t>ControButtonToolTips</x:t>
   </x:si>
@@ -149,6 +149,30 @@
   </x:si>
   <x:si>
     <x:t>the information includes the warnings and precautions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the information includes information on how to access instructions for use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DisplayInstructionsForUse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR015-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I request the instructions for use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the instructions for use is provided in a readable format</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the information includes the legal information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the information includes the version of the software the instructions relate to</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the information includes the date of issue for the instructions</x:t>
   </x:si>
   <x:si>
     <x:t>user</x:t>
@@ -562,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -807,7 +831,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D17"/>
+  <x:dimension ref="A1:D27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -925,6 +949,68 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="B21" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4"/>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
